--- a/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubFramework\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\J_界面相关\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="9390"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="21525" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="UIForm_Config" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -191,19 +196,21 @@
   </si>
   <si>
     <t>UIGameSettleForm</t>
+  </si>
+  <si>
+    <t>卡车移动游戏界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICarMoveGameForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,148 +222,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,192 +241,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -573,303 +269,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1127,28 +556,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="24.775" customWidth="1"/>
+    <col min="3" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="25.775" customWidth="1"/>
-    <col min="8" max="8" width="23.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1247,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1270,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1293,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>100</v>
       </c>
@@ -1316,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>101</v>
       </c>
@@ -1339,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>102</v>
       </c>
@@ -1362,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>103</v>
       </c>
@@ -1385,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>200</v>
       </c>
@@ -1408,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="2:8">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>300</v>
       </c>
@@ -1431,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:8">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>305</v>
       </c>
@@ -1454,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:8">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>310</v>
       </c>
@@ -1477,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="2:8">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>320</v>
       </c>
@@ -1500,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:8">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>330</v>
       </c>
@@ -1523,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="2:8">
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>340</v>
       </c>
@@ -1546,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:8">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>360</v>
       </c>
@@ -1569,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="2:8">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>370</v>
       </c>
@@ -1592,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>372</v>
       </c>
@@ -1615,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>374</v>
       </c>
@@ -1638,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>380</v>
       </c>
@@ -1661,13 +1090,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面&#10;2.独立主界面下子界面&#10;3.公共子界面" sqref="E12 D13 E13 D20 D21 D22 D1:D9 D10:D12 D14:D19 D23:D1048576 E14:E19"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个&#10;Background 背景层 UI &#10;Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉&#10;AnimationOn 动画层&#10;PopUI 弹出层UI 打开此类型的界面，可以打开多个&#10;Guide 引导层UI&#10;Const 持续存在层 UI&#10;Toast 对话框层 UI&#10;Forward 最高UI层用来放置UI特效和模型&#10;AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="G12 G13 G20 G21 G22 F1:F11 F23:F1048576 G14:G19"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations xWindow="1036" yWindow="229" count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="E12:E13 D1:D13 D20:D1048576 D14:E19"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个_x000a_Background 背景层 UI _x000a_Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉_x000a_AnimationOn 动画层_x000a_PopUI 弹出层UI 打开此类型的界面，可以打开多个_x000a_Guide 引导层UI_x000a_Const 持续存在层 UI_x000a_Toast 对话框层 UI_x000a_Forward 最高UI层用来放置UI特效和模型_x000a_AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="F1:F11 G12:G22 F23 F25:F1048576 G24"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>